--- a/data/trans_orig/IP25A02_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AC1269B-382A-4476-B348-8E0808EFAC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB5C6E7-7A64-4974-BA82-77C5FC13EDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82F6421B-5D8E-4FDF-9EAC-E6C2BC01694D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4C42F10-5F19-4E8C-BB3C-885870D62686}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="166">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión en fines de semana en 2023 (Tasa respuesta: 98,91%)</t>
   </si>
@@ -107,109 +107,109 @@
     <t>15,83%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>42,09%</t>
   </si>
   <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
   </si>
   <si>
     <t>48,31%</t>
   </si>
   <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
   </si>
   <si>
     <t>44,88%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -218,37 +218,37 @@
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>18,88%</t>
@@ -257,70 +257,70 @@
     <t>15,58%</t>
   </si>
   <si>
-    <t>22,04%</t>
+    <t>22,21%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
   </si>
   <si>
     <t>41,76%</t>
   </si>
   <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>40,78%</t>
   </si>
   <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>41,29%</t>
   </si>
   <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -329,214 +329,208 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>20,04%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
   </si>
   <si>
     <t>40,28%</t>
   </si>
   <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
   </si>
   <si>
     <t>38,33%</t>
   </si>
   <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>31,93%</t>
   </si>
   <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>36,29%</t>
   </si>
   <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
   </si>
   <si>
     <t>33,95%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>22,41%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>19,86%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>23,29%</t>
   </si>
   <si>
     <t>41,43%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
   </si>
   <si>
     <t>40,16%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
+    <t>43,54%</t>
   </si>
   <si>
     <t>40,83%</t>
   </si>
   <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>43,23%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>32,77%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>32,92%</t>
   </si>
   <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>31,02%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -951,7 +945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A7367B-FFC7-4748-8D69-9AD9B377DDB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FA3556-3785-47E0-9715-543F792BE63C}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2177,10 +2171,10 @@
         <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2189,13 @@
         <v>299360</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H26" s="7">
         <v>362</v>
@@ -2210,13 +2204,13 @@
         <v>257859</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>760</v>
@@ -2225,13 +2219,13 @@
         <v>557219</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2240,13 @@
         <v>212030</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H27" s="7">
         <v>319</v>
@@ -2261,13 +2255,13 @@
         <v>211381</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>621</v>
@@ -2276,13 +2270,13 @@
         <v>423411</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25A02_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25A02_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB5C6E7-7A64-4974-BA82-77C5FC13EDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D88E64F-1239-48C8-B6F1-72A83C275E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4C42F10-5F19-4E8C-BB3C-885870D62686}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{895B460A-F06F-4571-BDBD-0E9C0421AE0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="162">
   <si>
     <t>Menores según el número de horas al día que emplean en ver la televisión en fines de semana en 2023 (Tasa respuesta: 98,91%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,472 +65,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>De 1 a 2h</t>
-  </si>
-  <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>10,71%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -945,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FA3556-3785-47E0-9715-543F792BE63C}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71958AC-F23A-4BAF-B8B5-FE1F7A44A9F1}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1063,194 +1051,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2563</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>10269</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>12832</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13063</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>14095</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>27159</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D6" s="7">
+        <v>26356</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>25530</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>51886</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="7">
+        <v>9038</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>11532</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>20570</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1259,253 +1255,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D8" s="7">
+        <v>51020</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>1171</v>
+        <v>61426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>1171</v>
+        <v>112446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7">
-        <v>9213</v>
+        <v>31808</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I9" s="7">
-        <v>2588</v>
+        <v>27673</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="N9" s="7">
-        <v>11801</v>
+        <v>59480</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7">
-        <v>13625</v>
+        <v>81370</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I10" s="7">
-        <v>12568</v>
+        <v>116530</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>35</v>
+        <v>269</v>
       </c>
       <c r="N10" s="7">
-        <v>26194</v>
+        <v>197901</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="D11" s="7">
-        <v>24495</v>
+        <v>176846</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="I11" s="7">
-        <v>22933</v>
+        <v>209978</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>62</v>
+        <v>524</v>
       </c>
       <c r="N11" s="7">
-        <v>47428</v>
+        <v>386824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="D12" s="7">
-        <v>10864</v>
+        <v>163647</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="I12" s="7">
-        <v>9385</v>
+        <v>159838</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="N12" s="7">
-        <v>20249</v>
+        <v>323485</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,255 +1512,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>635</v>
       </c>
       <c r="D13" s="7">
-        <v>58197</v>
+        <v>453671</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>63</v>
+        <v>652</v>
       </c>
       <c r="I13" s="7">
-        <v>47474</v>
+        <v>514019</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>145</v>
+        <v>1287</v>
       </c>
       <c r="N13" s="7">
-        <v>105672</v>
+        <v>967691</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>26300</v>
+        <v>11254</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>31335</v>
+        <v>14509</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="N14" s="7">
-        <v>57635</v>
+        <v>25762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7">
-        <v>113598</v>
+        <v>29352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="I15" s="7">
-        <v>83663</v>
+        <v>35881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="N15" s="7">
-        <v>197261</v>
+        <v>65233</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="D16" s="7">
-        <v>204548</v>
+        <v>53509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7">
-        <v>180729</v>
+        <v>73804</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
-        <v>524</v>
+        <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>385277</v>
+        <v>127314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="D17" s="7">
-        <v>145425</v>
+        <v>54357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>147455</v>
+        <v>59155</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
-        <v>418</v>
+        <v>170</v>
       </c>
       <c r="N17" s="7">
-        <v>292881</v>
+        <v>113511</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,255 +1769,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>652</v>
+        <v>228</v>
       </c>
       <c r="D18" s="7">
-        <v>489871</v>
+        <v>148472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>635</v>
+        <v>238</v>
       </c>
       <c r="I18" s="7">
-        <v>443182</v>
+        <v>183349</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>1287</v>
+        <v>466</v>
       </c>
       <c r="N18" s="7">
-        <v>933054</v>
+        <v>331821</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D19" s="7">
-        <v>13835</v>
+        <v>45624</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I19" s="7">
-        <v>11435</v>
+        <v>52450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="N19" s="7">
-        <v>25270</v>
+        <v>98074</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="D20" s="7">
-        <v>34689</v>
+        <v>123786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="I20" s="7">
-        <v>30117</v>
+        <v>166507</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
-        <v>91</v>
+        <v>395</v>
       </c>
       <c r="N20" s="7">
-        <v>64806</v>
+        <v>290293</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="D21" s="7">
-        <v>70318</v>
+        <v>256711</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="I21" s="7">
-        <v>54197</v>
+        <v>309313</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
-        <v>174</v>
+        <v>760</v>
       </c>
       <c r="N21" s="7">
-        <v>124514</v>
+        <v>566024</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="D22" s="7">
-        <v>55741</v>
+        <v>227042</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
-        <v>89</v>
+        <v>302</v>
       </c>
       <c r="I22" s="7">
-        <v>54540</v>
+        <v>230524</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>170</v>
+        <v>621</v>
       </c>
       <c r="N22" s="7">
-        <v>110281</v>
+        <v>457566</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,318 +2026,60 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>926</v>
       </c>
       <c r="D23" s="7">
-        <v>174583</v>
+        <v>653163</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>228</v>
+        <v>972</v>
       </c>
       <c r="I23" s="7">
-        <v>150289</v>
+        <v>758794</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>466</v>
+        <v>1898</v>
       </c>
       <c r="N23" s="7">
-        <v>324872</v>
+        <v>1411958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>62</v>
-      </c>
-      <c r="D24" s="7">
-        <v>49348</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H24" s="7">
-        <v>60</v>
-      </c>
-      <c r="I24" s="7">
-        <v>45358</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="7">
-        <v>122</v>
-      </c>
-      <c r="N24" s="7">
-        <v>94706</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>210</v>
-      </c>
-      <c r="D25" s="7">
-        <v>161913</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="7">
-        <v>186</v>
-      </c>
-      <c r="I25" s="7">
-        <v>127519</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M25" s="7">
-        <v>396</v>
-      </c>
-      <c r="N25" s="7">
-        <v>289432</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>398</v>
-      </c>
-      <c r="D26" s="7">
-        <v>299360</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="7">
-        <v>362</v>
-      </c>
-      <c r="I26" s="7">
-        <v>257859</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="7">
-        <v>760</v>
-      </c>
-      <c r="N26" s="7">
-        <v>557219</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7">
-        <v>302</v>
-      </c>
-      <c r="D27" s="7">
-        <v>212030</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="7">
-        <v>319</v>
-      </c>
-      <c r="I27" s="7">
-        <v>211381</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="A24" t="s">
         <v>161</v>
       </c>
-      <c r="M27" s="7">
-        <v>621</v>
-      </c>
-      <c r="N27" s="7">
-        <v>423411</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>972</v>
-      </c>
-      <c r="D28" s="7">
-        <v>722651</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="7">
-        <v>927</v>
-      </c>
-      <c r="I28" s="7">
-        <v>642117</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1899</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1364768</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>165</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
